--- a/data/Fossils/FosseisXYSilvestro2019.xlsx
+++ b/data/Fossils/FosseisXYSilvestro2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/799e103cf1ed2d46/Pesquisa/2021_ArtigoQ1 2 Platyrhinni-Asus/Platy_paper/data/Fossils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{B3DCD004-115F-4608-9291-D5EF191C1709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15D434C0-A416-4DA9-B97C-8F60D23F8E42}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{B3DCD004-115F-4608-9291-D5EF191C1709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBC2B057-3287-4FB6-9122-496767F58C19}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3794B47-C54B-4ACD-8BD3-A14B50E00157}"/>
   </bookViews>
